--- a/desconto/classes_equivalencia.xlsx
+++ b/desconto/classes_equivalencia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20221014040003\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20221014040003\Desktop\teste_de_software\desconto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BB14BC-8CEE-4555-B5FB-952701293611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -142,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,21 +292,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,9 +312,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,6 +340,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,11 +672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,17 +687,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -719,27 +709,27 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="2">
@@ -748,80 +738,80 @@
       <c r="E3" s="2">
         <v>251</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="2">
         <v>250</v>
       </c>
       <c r="E4" s="2">
         <v>250</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2">
@@ -832,40 +822,44 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -877,7 +871,7 @@
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -885,16 +879,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -902,7 +896,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
@@ -917,11 +911,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="2">
         <v>0</v>
       </c>
@@ -930,53 +924,53 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
